--- a/excel/format_tagihan.xlsx
+++ b/excel/format_tagihan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>bulan</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Nama Lengkap</t>
+  </si>
+  <si>
+    <t>konversi</t>
+  </si>
+  <si>
+    <t>deadline</t>
   </si>
 </sst>
 </file>
@@ -121,10 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,12 +447,13 @@
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -456,46 +464,52 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,18 +519,18 @@
       <c r="C2">
         <v>2020</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
+        <v>44196</v>
+      </c>
+      <c r="E2">
         <v>1200000</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2">
-        <f>SUM(G2:P2)</f>
-        <v>9999990</v>
-      </c>
       <c r="G2">
-        <v>999999</v>
+        <f>SUM(H2:R2)</f>
+        <v>10999989</v>
       </c>
       <c r="H2">
         <v>999999</v>
@@ -545,15 +559,21 @@
       <c r="P2">
         <v>999999</v>
       </c>
+      <c r="Q2">
+        <v>999999</v>
+      </c>
+      <c r="R2">
+        <v>999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F3">
-        <f t="shared" ref="F3:F4" si="0">SUM(G3:P3)</f>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="0">SUM(H3:R3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
